--- a/26mar.xlsx
+++ b/26mar.xlsx
@@ -479,12 +479,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>mars402</t>
+          <t>mars639</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>c9FmTdx8</t>
+          <t>mwc4Gu7t</t>
         </is>
       </c>
     </row>
@@ -506,12 +506,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>mars403</t>
+          <t>mars640</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>feKSNUcx</t>
+          <t>UKKJSgp5</t>
         </is>
       </c>
     </row>
@@ -533,12 +533,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>mars404</t>
+          <t>mars641</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>xtmL7Zvn</t>
+          <t>7weg5BUG</t>
         </is>
       </c>
     </row>
@@ -560,12 +560,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>mars405</t>
+          <t>mars642</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>7LMhsCxE</t>
+          <t>JsyG7RS2</t>
         </is>
       </c>
     </row>
@@ -587,12 +587,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>mars406</t>
+          <t>mars643</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>LLvAzwXA</t>
+          <t>SJDkuwcM</t>
         </is>
       </c>
     </row>
@@ -614,12 +614,12 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>mars407</t>
+          <t>mars644</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>gB4h8ahu</t>
+          <t>kUcYRhar</t>
         </is>
       </c>
     </row>
@@ -641,12 +641,12 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>mars408</t>
+          <t>mars645</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>HqRG6bfT</t>
+          <t>JcS2CJzd</t>
         </is>
       </c>
     </row>
@@ -668,12 +668,12 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>mars409</t>
+          <t>mars646</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>6Lv8tT2k</t>
+          <t>C4qvKCwV</t>
         </is>
       </c>
     </row>
